--- a/static/APPENDIX A - FedRAMP Tailored Security Controls Baseline 2017-07-11 v2.0.xlsx
+++ b/static/APPENDIX A - FedRAMP Tailored Security Controls Baseline 2017-07-11 v2.0.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\OneDrive - Noblis, Inc\_FedRAMP\_CURRENT_PROJECTS\FedRAMP Tailored Revsions\2017-07-11 For Publication\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" tabRatio="729"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" tabRatio="729"/>
   </bookViews>
   <sheets>
     <sheet name="Key to LI-SaaS Baseline" sheetId="1" r:id="rId1"/>
@@ -58,7 +53,7 @@
     <definedName name="Z_B6182D6E_E46A_4172_8368_2F404B653D36_.wvu.FilterData" localSheetId="1" hidden="1">'FedRAMP Tailored - CSP Response'!$A$2:$CK$114</definedName>
     <definedName name="Z_B6182D6E_E46A_4172_8368_2F404B653D36_.wvu.FilterData" localSheetId="2" hidden="1">'FedRAMP Tailored-Details'!$A$2:$CK$128</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <customWorkbookViews>
     <customWorkbookView name="Farrell, Kathleen P. - Personal View" guid="{B6182D6E-E46A-4172-8368-2F404B653D36}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-1089" windowWidth="1938" windowHeight="1098" tabRatio="729" activeSheetId="1" showComments="commIndAndComment"/>
   </customWorkbookViews>
@@ -71,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="328">
   <si>
     <t>SC-15</t>
   </si>
@@ -1087,9 +1082,6 @@
     <t>Attestation - Specifically describe information spillage response processes.</t>
   </si>
   <si>
-    <t>CSP includes inherited controls in self-attestation.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Required (Conditional): If availability is a requirement - define protections in place as per control requirement .             </t>
   </si>
   <si>
@@ -1173,21 +1165,6 @@
     </r>
   </si>
   <si>
-    <t>Controls FedRAMP determined. Does not impact the security of the Cloud SaaS.</t>
-  </si>
-  <si>
-    <t>Controls FedRAMP determined. Not required for Low Impact Cloud SaaS, and are independently assessed.</t>
-  </si>
-  <si>
-    <t>Controls FedRAMP. Determined to be conditionally required for Low Impact Cloud SaaS.</t>
-  </si>
-  <si>
-    <t>Controls FedRAMP. Determined to be inherited from the underlying infrastructure provider (i.e., FedRAMP authorized IaaS/PaaS) for LI Cloud SaaS.</t>
-  </si>
-  <si>
-    <t>Controls for which FedRAMP determined that the CSP is required to attest to being in place for LI Cloud SaaS.</t>
-  </si>
-  <si>
     <t>Required (Conditional): Control is applicable if there are connection(s) to external systems.  Connections (if any) shall be authorized and must:
 1) Identify the interface/connection.
 2) Detail what data is involved and its sensitivity.
@@ -1197,12 +1174,53 @@
   <si>
     <t>NSO - for non-privileged users. Attestation - for privileged users related to multi-factor identification and authentication. Include specific description of management of service accounts.</t>
   </si>
+  <si>
+    <t>Controls FedRAMP determined does not impact the security of the Cloud SaaS.</t>
+  </si>
+  <si>
+    <t>Controls FedRAMP determined are ot required for Low Impact Cloud SaaS, and are independently assessed.</t>
+  </si>
+  <si>
+    <t>Controls FedRAMP determined to be conditionally required for Low Impact Cloud SaaS.</t>
+  </si>
+  <si>
+    <r>
+      <t>Controls FedRAMP determined to be inherited from the underlying infrastructure provider (i.e., FedRAMP authorized IaaS/PaaS) for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> LI-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SaaS.
+NOTE: If the SaaS resides on a non-FedRAMP system, the CSP must treat all inherited controls as required.</t>
+    </r>
+  </si>
+  <si>
+    <t>Controls for which FedRAMP determined the CSP may attest to being in place for LI-SaaS rather than have assessed.</t>
+  </si>
+  <si>
+    <t>CSP includes inherited controls in self-attestation. If not inherited, must treat as required.</t>
+  </si>
+  <si>
+    <t>CSP includes inherited controls in self-attestation.If not inherited, must treat as required.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1333,6 +1351,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1586,6 +1610,30 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1631,30 +1679,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1693,7 +1717,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5159A5E1-58BE-4F01-B310-2D0BF500AF78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5159A5E1-58BE-4F01-B310-2D0BF500AF78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2045,27 +2069,27 @@
   <dimension ref="B1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E4"/>
+      <selection activeCell="C17" sqref="C17:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="30.7265625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="47.125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="4.36328125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="47.08984375" style="13" customWidth="1"/>
     <col min="4" max="4" width="14" style="13" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="30.75" style="13"/>
+    <col min="5" max="5" width="21.6328125" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="30.7265625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="12" customFormat="1" ht="165.4" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B2" s="37" t="s">
+    <row r="1" spans="2:5" s="12" customFormat="1" ht="165.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B2" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="14" t="s">
@@ -2073,12 +2097,12 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="41" t="s">
-        <v>319</v>
-      </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
+      <c r="B4" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="14"/>
@@ -2086,107 +2110,107 @@
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
     </row>
-    <row r="6" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="2:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="52" t="s">
+    <row r="7" spans="2:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="37" t="s">
         <v>150</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="2:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="53" t="s">
+    <row r="8" spans="2:5" ht="30.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="38" t="s">
         <v>281</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
     </row>
-    <row r="9" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="53" t="s">
+    <row r="9" spans="2:5" ht="30.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="53" t="s">
-        <v>320</v>
+      <c r="C9" s="38" t="s">
+        <v>321</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="2:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="53" t="s">
+    <row r="10" spans="2:5" ht="30.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="C10" s="53" t="s">
-        <v>321</v>
+      <c r="C10" s="38" t="s">
+        <v>322</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="53" t="s">
+    <row r="11" spans="2:5" ht="30.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="C11" s="53" t="s">
-        <v>322</v>
+      <c r="C11" s="38" t="s">
+        <v>323</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="2:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="53" t="s">
+    <row r="12" spans="2:5" ht="75.599999999999994" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="C12" s="53" t="s">
-        <v>323</v>
+      <c r="C12" s="38" t="s">
+        <v>324</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="2:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="53" t="s">
-        <v>257</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>324</v>
+    <row r="13" spans="2:5" ht="45.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>325</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
     </row>
     <row r="15" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="51" t="s">
         <v>279</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="45"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="53"/>
     </row>
     <row r="16" spans="2:5" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="48"/>
-    </row>
-    <row r="17" spans="2:5" s="17" customFormat="1" ht="62.25" x14ac:dyDescent="0.2">
+      <c r="B16" s="54"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+    </row>
+    <row r="17" spans="2:5" s="17" customFormat="1" ht="62.4" x14ac:dyDescent="0.2">
       <c r="B17" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="50" t="s">
         <v>273</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-    </row>
-    <row r="18" spans="2:5" ht="41.25" x14ac:dyDescent="0.2">
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+    </row>
+    <row r="18" spans="2:5" ht="42" x14ac:dyDescent="0.25">
       <c r="B18" s="25" t="s">
         <v>284</v>
       </c>
@@ -2196,15 +2220,15 @@
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
     </row>
-    <row r="21" spans="2:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B21" s="40" t="s">
+    <row r="21" spans="2:5" ht="22.8" x14ac:dyDescent="0.2">
+      <c r="B21" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+    </row>
+    <row r="22" spans="2:5" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B22" s="28" t="s">
         <v>26</v>
       </c>
@@ -2218,7 +2242,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:5" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" s="14" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
       <c r="B23" s="30">
         <v>41303</v>
       </c>
@@ -2232,12 +2256,12 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="2:5" s="14" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" s="14" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
       <c r="B24" s="30">
         <v>41465</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D24" s="32">
         <v>2</v>
@@ -2246,13 +2270,13 @@
         <v>255</v>
       </c>
     </row>
-    <row r="25" spans="2:5" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" s="14" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
       <c r="B25" s="30"/>
       <c r="C25" s="31"/>
       <c r="D25" s="32"/>
       <c r="E25" s="33"/>
     </row>
-    <row r="26" spans="2:5" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" s="14" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B26" s="23"/>
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
@@ -2284,28 +2308,31 @@
   <dimension ref="A1:CK1041"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.90625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.36328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="3" customWidth="1"/>
     <col min="5" max="5" width="41" style="7" customWidth="1"/>
     <col min="6" max="89" width="11" style="2"/>
     <col min="90" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" s="4" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="54"/>
+    <row r="1" spans="1:89" s="4" customFormat="1" ht="22.2" x14ac:dyDescent="0.2">
+      <c r="A1" s="39"/>
       <c r="B1" s="18" t="s">
         <v>277</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="20"/>
-      <c r="E1" s="55"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -2391,20 +2418,20 @@
       <c r="CJ1" s="2"/>
       <c r="CK1" s="2"/>
     </row>
-    <row r="2" spans="1:89" s="22" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:89" s="22" customFormat="1" ht="16.2" x14ac:dyDescent="0.2">
+      <c r="A2" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="41" t="s">
         <v>270</v>
       </c>
       <c r="F2" s="21"/>
@@ -2492,8 +2519,8 @@
       <c r="CJ2" s="21"/>
       <c r="CK2" s="21"/>
     </row>
-    <row r="3" spans="1:89" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="57">
+    <row r="3" spans="1:89" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A3" s="42">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2505,10 +2532,10 @@
       <c r="D3" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E3" s="58"/>
-    </row>
-    <row r="4" spans="1:89" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="57">
+      <c r="E3" s="43"/>
+    </row>
+    <row r="4" spans="1:89" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A4" s="42">
         <f>A3+1</f>
         <v>2</v>
       </c>
@@ -2523,8 +2550,8 @@
       </c>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:89" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="57">
+    <row r="5" spans="1:89" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A5" s="42">
         <f t="shared" ref="A5:A68" si="0">A4+1</f>
         <v>3</v>
       </c>
@@ -2539,8 +2566,8 @@
       </c>
       <c r="E5" s="34"/>
     </row>
-    <row r="6" spans="1:89" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="57">
+    <row r="6" spans="1:89" s="4" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A6" s="42">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2557,8 +2584,8 @@
         <v>292</v>
       </c>
     </row>
-    <row r="7" spans="1:89" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57">
+    <row r="7" spans="1:89" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A7" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -2573,8 +2600,8 @@
       </c>
       <c r="E7" s="34"/>
     </row>
-    <row r="8" spans="1:89" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="57">
+    <row r="8" spans="1:89" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A8" s="42">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -2589,8 +2616,8 @@
       </c>
       <c r="E8" s="34"/>
     </row>
-    <row r="9" spans="1:89" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="57">
+    <row r="9" spans="1:89" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A9" s="42">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2605,8 +2632,8 @@
       </c>
       <c r="E9" s="34"/>
     </row>
-    <row r="10" spans="1:89" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="57">
+    <row r="10" spans="1:89" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A10" s="42">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -2621,8 +2648,8 @@
       </c>
       <c r="E10" s="34"/>
     </row>
-    <row r="11" spans="1:89" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57">
+    <row r="11" spans="1:89" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A11" s="42">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -2637,8 +2664,8 @@
       </c>
       <c r="E11" s="34"/>
     </row>
-    <row r="12" spans="1:89" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="57">
+    <row r="12" spans="1:89" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A12" s="42">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -2653,8 +2680,8 @@
       </c>
       <c r="E12" s="34"/>
     </row>
-    <row r="13" spans="1:89" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="57">
+    <row r="13" spans="1:89" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A13" s="42">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -2669,8 +2696,8 @@
       </c>
       <c r="E13" s="34"/>
     </row>
-    <row r="14" spans="1:89" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="57">
+    <row r="14" spans="1:89" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A14" s="42">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -2685,8 +2712,8 @@
       </c>
       <c r="E14" s="34"/>
     </row>
-    <row r="15" spans="1:89" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="57">
+    <row r="15" spans="1:89" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A15" s="42">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -2701,8 +2728,8 @@
       </c>
       <c r="E15" s="34"/>
     </row>
-    <row r="16" spans="1:89" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="57">
+    <row r="16" spans="1:89" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A16" s="42">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -2717,8 +2744,8 @@
       </c>
       <c r="E16" s="34"/>
     </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="57">
+    <row r="17" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A17" s="42">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -2733,8 +2760,8 @@
       </c>
       <c r="E17" s="34"/>
     </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="57">
+    <row r="18" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A18" s="42">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -2749,8 +2776,8 @@
       </c>
       <c r="E18" s="34"/>
     </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="57">
+    <row r="19" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A19" s="42">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -2765,8 +2792,8 @@
       </c>
       <c r="E19" s="34"/>
     </row>
-    <row r="20" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="57">
+    <row r="20" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A20" s="42">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -2781,8 +2808,8 @@
       </c>
       <c r="E20" s="35"/>
     </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="57">
+    <row r="21" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A21" s="42">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -2797,8 +2824,8 @@
       </c>
       <c r="E21" s="34"/>
     </row>
-    <row r="22" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="57">
+    <row r="22" spans="1:5" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A22" s="42">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -2813,8 +2840,8 @@
       </c>
       <c r="E22" s="34"/>
     </row>
-    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="57">
+    <row r="23" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A23" s="42">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -2829,8 +2856,8 @@
       </c>
       <c r="E23" s="34"/>
     </row>
-    <row r="24" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="57">
+    <row r="24" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A24" s="42">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -2845,8 +2872,8 @@
       </c>
       <c r="E24" s="34"/>
     </row>
-    <row r="25" spans="1:5" s="4" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A25" s="57">
+    <row r="25" spans="1:5" s="4" customFormat="1" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A25" s="42">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -2860,11 +2887,11 @@
         <v>260</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="57">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A26" s="42">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -2881,8 +2908,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="57">
+    <row r="27" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A27" s="42">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -2897,8 +2924,8 @@
       </c>
       <c r="E27" s="34"/>
     </row>
-    <row r="28" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="57">
+    <row r="28" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A28" s="42">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
@@ -2913,8 +2940,8 @@
       </c>
       <c r="E28" s="34"/>
     </row>
-    <row r="29" spans="1:5" s="4" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A29" s="57">
+    <row r="29" spans="1:5" s="4" customFormat="1" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A29" s="42">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -2928,11 +2955,11 @@
         <v>260</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="57">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A30" s="42">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -2947,8 +2974,8 @@
       </c>
       <c r="E30" s="34"/>
     </row>
-    <row r="31" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="57">
+    <row r="31" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A31" s="42">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -2963,8 +2990,8 @@
       </c>
       <c r="E31" s="36"/>
     </row>
-    <row r="32" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="57">
+    <row r="32" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A32" s="42">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -2979,8 +3006,8 @@
       </c>
       <c r="E32" s="34"/>
     </row>
-    <row r="33" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="57">
+    <row r="33" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A33" s="42">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
@@ -2995,8 +3022,8 @@
       </c>
       <c r="E33" s="34"/>
     </row>
-    <row r="34" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="57">
+    <row r="34" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A34" s="42">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -3011,8 +3038,8 @@
       </c>
       <c r="E34" s="34"/>
     </row>
-    <row r="35" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="57">
+    <row r="35" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A35" s="42">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -3027,8 +3054,8 @@
       </c>
       <c r="E35" s="34"/>
     </row>
-    <row r="36" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="57">
+    <row r="36" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A36" s="42">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -3043,8 +3070,8 @@
       </c>
       <c r="E36" s="34"/>
     </row>
-    <row r="37" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="57">
+    <row r="37" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A37" s="42">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -3059,8 +3086,8 @@
       </c>
       <c r="E37" s="34"/>
     </row>
-    <row r="38" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="57">
+    <row r="38" spans="1:5" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A38" s="42">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -3075,8 +3102,8 @@
       </c>
       <c r="E38" s="34"/>
     </row>
-    <row r="39" spans="1:5" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="57">
+    <row r="39" spans="1:5" s="4" customFormat="1" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A39" s="42">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
@@ -3090,11 +3117,11 @@
         <v>259</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="57">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="4" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A40" s="42">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
@@ -3109,8 +3136,8 @@
       </c>
       <c r="E40" s="34"/>
     </row>
-    <row r="41" spans="1:5" s="4" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="57">
+    <row r="41" spans="1:5" s="4" customFormat="1" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A41" s="42">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
@@ -3127,8 +3154,8 @@
         <v>293</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="57">
+    <row r="42" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A42" s="42">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -3143,8 +3170,8 @@
       </c>
       <c r="E42" s="34"/>
     </row>
-    <row r="43" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="57">
+    <row r="43" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A43" s="42">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -3159,8 +3186,8 @@
       </c>
       <c r="E43" s="34"/>
     </row>
-    <row r="44" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="57">
+    <row r="44" spans="1:5" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A44" s="42">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
@@ -3175,8 +3202,8 @@
       </c>
       <c r="E44" s="34"/>
     </row>
-    <row r="45" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="57">
+    <row r="45" spans="1:5" s="4" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A45" s="42">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
@@ -3193,8 +3220,8 @@
         <v>294</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="57">
+    <row r="46" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A46" s="42">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
@@ -3209,8 +3236,8 @@
       </c>
       <c r="E46" s="34"/>
     </row>
-    <row r="47" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="57">
+    <row r="47" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A47" s="42">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -3225,8 +3252,8 @@
       </c>
       <c r="E47" s="34"/>
     </row>
-    <row r="48" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="57">
+    <row r="48" spans="1:5" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A48" s="42">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
@@ -3241,8 +3268,8 @@
       </c>
       <c r="E48" s="34"/>
     </row>
-    <row r="49" spans="1:5" s="4" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="57">
+    <row r="49" spans="1:5" s="4" customFormat="1" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A49" s="42">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
@@ -3259,8 +3286,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="4" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="57">
+    <row r="50" spans="1:5" s="4" customFormat="1" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A50" s="42">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
@@ -3277,8 +3304,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="57">
+    <row r="51" spans="1:5" s="4" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A51" s="42">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
@@ -3293,8 +3320,8 @@
       </c>
       <c r="E51" s="34"/>
     </row>
-    <row r="52" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="57">
+    <row r="52" spans="1:5" s="4" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A52" s="42">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -3309,8 +3336,8 @@
       </c>
       <c r="E52" s="34"/>
     </row>
-    <row r="53" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="57">
+    <row r="53" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A53" s="42">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
@@ -3325,8 +3352,8 @@
       </c>
       <c r="E53" s="34"/>
     </row>
-    <row r="54" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="57">
+    <row r="54" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A54" s="42">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
@@ -3341,8 +3368,8 @@
       </c>
       <c r="E54" s="34"/>
     </row>
-    <row r="55" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="57">
+    <row r="55" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A55" s="42">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
@@ -3357,8 +3384,8 @@
       </c>
       <c r="E55" s="34"/>
     </row>
-    <row r="56" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="57">
+    <row r="56" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A56" s="42">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
@@ -3373,8 +3400,8 @@
       </c>
       <c r="E56" s="34"/>
     </row>
-    <row r="57" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="57">
+    <row r="57" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A57" s="42">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
@@ -3389,8 +3416,8 @@
       </c>
       <c r="E57" s="34"/>
     </row>
-    <row r="58" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="57">
+    <row r="58" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A58" s="42">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
@@ -3405,8 +3432,8 @@
       </c>
       <c r="E58" s="34"/>
     </row>
-    <row r="59" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="57">
+    <row r="59" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A59" s="42">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
@@ -3423,8 +3450,8 @@
         <v>296</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="57">
+    <row r="60" spans="1:5" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A60" s="42">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
@@ -3441,8 +3468,8 @@
         <v>297</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="57">
+    <row r="61" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A61" s="42">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
@@ -3457,8 +3484,8 @@
       </c>
       <c r="E61" s="34"/>
     </row>
-    <row r="62" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="57">
+    <row r="62" spans="1:5" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A62" s="42">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -3472,11 +3499,11 @@
         <v>267</v>
       </c>
       <c r="E62" s="34" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="57">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A63" s="42">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
@@ -3491,8 +3518,8 @@
       </c>
       <c r="E63" s="34"/>
     </row>
-    <row r="64" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="57">
+    <row r="64" spans="1:5" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A64" s="42">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
@@ -3506,11 +3533,11 @@
         <v>267</v>
       </c>
       <c r="E64" s="34" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="57">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A65" s="42">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
@@ -3525,8 +3552,8 @@
       </c>
       <c r="E65" s="34"/>
     </row>
-    <row r="66" spans="1:7" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="57">
+    <row r="66" spans="1:7" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A66" s="42">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
@@ -3540,11 +3567,11 @@
         <v>267</v>
       </c>
       <c r="E66" s="34" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="57">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A67" s="42">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
@@ -3558,11 +3585,11 @@
         <v>267</v>
       </c>
       <c r="E67" s="34" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="57">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A68" s="42">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
@@ -3576,11 +3603,11 @@
         <v>267</v>
       </c>
       <c r="E68" s="34" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="57">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A69" s="42">
         <f t="shared" ref="A69:A114" si="1">A68+1</f>
         <v>67</v>
       </c>
@@ -3595,8 +3622,8 @@
       </c>
       <c r="E69" s="34"/>
     </row>
-    <row r="70" spans="1:7" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="57">
+    <row r="70" spans="1:7" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A70" s="42">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
@@ -3610,11 +3637,11 @@
         <v>267</v>
       </c>
       <c r="E70" s="34" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="57">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A71" s="42">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
@@ -3628,11 +3655,11 @@
         <v>267</v>
       </c>
       <c r="E71" s="34" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="57">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A72" s="42">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
@@ -3646,11 +3673,11 @@
         <v>267</v>
       </c>
       <c r="E72" s="34" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="57">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A73" s="42">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
@@ -3664,11 +3691,11 @@
         <v>267</v>
       </c>
       <c r="E73" s="34" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="57">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A74" s="42">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
@@ -3682,13 +3709,13 @@
         <v>267</v>
       </c>
       <c r="E74" s="34" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="F74" s="5"/>
       <c r="G74" s="9"/>
     </row>
-    <row r="75" spans="1:7" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="57">
+    <row r="75" spans="1:7" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A75" s="42">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
@@ -3702,13 +3729,13 @@
         <v>267</v>
       </c>
       <c r="E75" s="34" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="F75" s="5"/>
       <c r="G75" s="9"/>
     </row>
-    <row r="76" spans="1:7" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="57">
+    <row r="76" spans="1:7" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A76" s="42">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
@@ -3722,13 +3749,13 @@
         <v>267</v>
       </c>
       <c r="E76" s="34" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="F76" s="5"/>
       <c r="G76" s="9"/>
     </row>
-    <row r="77" spans="1:7" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="57">
+    <row r="77" spans="1:7" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A77" s="42">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
@@ -3742,13 +3769,13 @@
         <v>267</v>
       </c>
       <c r="E77" s="34" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="F77" s="5"/>
       <c r="G77" s="9"/>
     </row>
-    <row r="78" spans="1:7" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="57">
+    <row r="78" spans="1:7" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A78" s="42">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
@@ -3762,13 +3789,13 @@
         <v>267</v>
       </c>
       <c r="E78" s="34" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="F78" s="5"/>
       <c r="G78" s="9"/>
     </row>
-    <row r="79" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="57">
+    <row r="79" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A79" s="42">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
@@ -3785,8 +3812,8 @@
       <c r="F79" s="5"/>
       <c r="G79" s="9"/>
     </row>
-    <row r="80" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A80" s="57">
+    <row r="80" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A80" s="42">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
@@ -3803,8 +3830,8 @@
       <c r="F80" s="5"/>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="57">
+    <row r="81" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A81" s="42">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
@@ -3819,8 +3846,8 @@
       </c>
       <c r="E81" s="34"/>
     </row>
-    <row r="82" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="57">
+    <row r="82" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A82" s="42">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
@@ -3835,8 +3862,8 @@
       </c>
       <c r="E82" s="34"/>
     </row>
-    <row r="83" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="57">
+    <row r="83" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A83" s="42">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
@@ -3851,8 +3878,8 @@
       </c>
       <c r="E83" s="34"/>
     </row>
-    <row r="84" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="57">
+    <row r="84" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A84" s="42">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
@@ -3867,8 +3894,8 @@
       </c>
       <c r="E84" s="34"/>
     </row>
-    <row r="85" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="57">
+    <row r="85" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A85" s="42">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
@@ -3883,8 +3910,8 @@
       </c>
       <c r="E85" s="34"/>
     </row>
-    <row r="86" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="57">
+    <row r="86" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A86" s="42">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
@@ -3899,8 +3926,8 @@
       </c>
       <c r="E86" s="34"/>
     </row>
-    <row r="87" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="57">
+    <row r="87" spans="1:5" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A87" s="42">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
@@ -3914,11 +3941,11 @@
         <v>257</v>
       </c>
       <c r="E87" s="34" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="57">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A88" s="42">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
@@ -3933,8 +3960,8 @@
       </c>
       <c r="E88" s="34"/>
     </row>
-    <row r="89" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="57">
+    <row r="89" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A89" s="42">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
@@ -3949,8 +3976,8 @@
       </c>
       <c r="E89" s="34"/>
     </row>
-    <row r="90" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="57">
+    <row r="90" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A90" s="42">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
@@ -3965,8 +3992,8 @@
       </c>
       <c r="E90" s="34"/>
     </row>
-    <row r="91" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="57">
+    <row r="91" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A91" s="42">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
@@ -3981,8 +4008,8 @@
       </c>
       <c r="E91" s="34"/>
     </row>
-    <row r="92" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="57">
+    <row r="92" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A92" s="42">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
@@ -3997,8 +4024,8 @@
       </c>
       <c r="E92" s="34"/>
     </row>
-    <row r="93" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="57">
+    <row r="93" spans="1:5" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A93" s="42">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
@@ -4013,8 +4040,8 @@
       </c>
       <c r="E93" s="34"/>
     </row>
-    <row r="94" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="57">
+    <row r="94" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A94" s="42">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
@@ -4029,8 +4056,8 @@
       </c>
       <c r="E94" s="34"/>
     </row>
-    <row r="95" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="57">
+    <row r="95" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A95" s="42">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
@@ -4045,8 +4072,8 @@
       </c>
       <c r="E95" s="34"/>
     </row>
-    <row r="96" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="57">
+    <row r="96" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A96" s="42">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
@@ -4061,8 +4088,8 @@
       </c>
       <c r="E96" s="34"/>
     </row>
-    <row r="97" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="57">
+    <row r="97" spans="1:5" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A97" s="42">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
@@ -4077,8 +4104,8 @@
       </c>
       <c r="E97" s="34"/>
     </row>
-    <row r="98" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="57">
+    <row r="98" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A98" s="42">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
@@ -4093,8 +4120,8 @@
       </c>
       <c r="E98" s="34"/>
     </row>
-    <row r="99" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="57">
+    <row r="99" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A99" s="42">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
@@ -4109,8 +4136,8 @@
       </c>
       <c r="E99" s="34"/>
     </row>
-    <row r="100" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="57">
+    <row r="100" spans="1:5" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A100" s="42">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
@@ -4125,8 +4152,8 @@
       </c>
       <c r="E100" s="34"/>
     </row>
-    <row r="101" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="57">
+    <row r="101" spans="1:5" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A101" s="42">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
@@ -4139,12 +4166,12 @@
       <c r="D101" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E101" s="59" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="57">
+      <c r="E101" s="44" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A102" s="42">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -4159,8 +4186,8 @@
       </c>
       <c r="E102" s="34"/>
     </row>
-    <row r="103" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="57">
+    <row r="103" spans="1:5" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A103" s="42">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
@@ -4175,8 +4202,8 @@
       </c>
       <c r="E103" s="34"/>
     </row>
-    <row r="104" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="57">
+    <row r="104" spans="1:5" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A104" s="42">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
@@ -4190,11 +4217,11 @@
         <v>260</v>
       </c>
       <c r="E104" s="34" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="57">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A105" s="42">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
@@ -4209,8 +4236,8 @@
       </c>
       <c r="E105" s="34"/>
     </row>
-    <row r="106" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="57">
+    <row r="106" spans="1:5" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A106" s="42">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
@@ -4225,8 +4252,8 @@
       </c>
       <c r="E106" s="34"/>
     </row>
-    <row r="107" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="57">
+    <row r="107" spans="1:5" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A107" s="42">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
@@ -4241,8 +4268,8 @@
       </c>
       <c r="E107" s="34"/>
     </row>
-    <row r="108" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="57">
+    <row r="108" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A108" s="42">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
@@ -4257,8 +4284,8 @@
       </c>
       <c r="E108" s="34"/>
     </row>
-    <row r="109" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="57">
+    <row r="109" spans="1:5" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A109" s="42">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
@@ -4273,8 +4300,8 @@
       </c>
       <c r="E109" s="34"/>
     </row>
-    <row r="110" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="57">
+    <row r="110" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A110" s="42">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
@@ -4289,8 +4316,8 @@
       </c>
       <c r="E110" s="34"/>
     </row>
-    <row r="111" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="57">
+    <row r="111" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A111" s="42">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
@@ -4305,8 +4332,8 @@
       </c>
       <c r="E111" s="34"/>
     </row>
-    <row r="112" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="57">
+    <row r="112" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A112" s="42">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
@@ -4321,8 +4348,8 @@
       </c>
       <c r="E112" s="34"/>
     </row>
-    <row r="113" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="57">
+    <row r="113" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A113" s="42">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
@@ -4337,8 +4364,8 @@
       </c>
       <c r="E113" s="34"/>
     </row>
-    <row r="114" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="57">
+    <row r="114" spans="1:5" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A114" s="42">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
@@ -4352,10 +4379,10 @@
         <v>257</v>
       </c>
       <c r="E114" s="34" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A115" s="6"/>
       <c r="E115" s="36"/>
     </row>
@@ -8094,47 +8121,50 @@
   <dimension ref="A1:E129"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="34.375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="37.375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="5.36328125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="34.36328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="37.36328125" style="9" customWidth="1"/>
     <col min="6" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="57" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="59"/>
     </row>
     <row r="2" spans="1:5" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="41" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="57">
+    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A3" s="42">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -8146,10 +8176,10 @@
       <c r="D3" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E3" s="58"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="57">
+      <c r="E3" s="43"/>
+    </row>
+    <row r="4" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A4" s="42">
         <f>A3+1</f>
         <v>2</v>
       </c>
@@ -8164,8 +8194,8 @@
       </c>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="57">
+    <row r="5" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A5" s="42">
         <f t="shared" ref="A5:A68" si="0">A4+1</f>
         <v>3</v>
       </c>
@@ -8180,8 +8210,8 @@
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="57">
+    <row r="6" spans="1:5" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A6" s="42">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -8195,11 +8225,11 @@
         <v>259</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="57">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A7" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -8213,11 +8243,11 @@
         <v>142</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="57">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A8" s="42">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -8231,11 +8261,11 @@
         <v>142</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="57">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A9" s="42">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -8250,8 +8280,8 @@
       </c>
       <c r="E9" s="34"/>
     </row>
-    <row r="10" spans="1:5" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="57">
+    <row r="10" spans="1:5" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A10" s="42">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -8264,12 +8294,12 @@
       <c r="D10" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E10" s="59" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A11" s="57">
+      <c r="E10" s="44" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A11" s="42">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -8282,12 +8312,12 @@
       <c r="D11" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="44" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="57">
+    <row r="12" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A12" s="42">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -8302,8 +8332,8 @@
       </c>
       <c r="E12" s="34"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="57">
+    <row r="13" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A13" s="42">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -8318,8 +8348,8 @@
       </c>
       <c r="E13" s="34"/>
     </row>
-    <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="57">
+    <row r="14" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A14" s="42">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -8334,8 +8364,8 @@
       </c>
       <c r="E14" s="34"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="57">
+    <row r="15" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A15" s="42">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -8350,8 +8380,8 @@
       </c>
       <c r="E15" s="34"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="57">
+    <row r="16" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A16" s="42">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -8366,8 +8396,8 @@
       </c>
       <c r="E16" s="34"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="57">
+    <row r="17" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A17" s="42">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -8382,8 +8412,8 @@
       </c>
       <c r="E17" s="34"/>
     </row>
-    <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="57">
+    <row r="18" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A18" s="42">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -8398,8 +8428,8 @@
       </c>
       <c r="E18" s="34"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="57">
+    <row r="19" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A19" s="42">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -8414,8 +8444,8 @@
       </c>
       <c r="E19" s="34"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="57">
+    <row r="20" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A20" s="42">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -8430,8 +8460,8 @@
       </c>
       <c r="E20" s="34"/>
     </row>
-    <row r="21" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="57">
+    <row r="21" spans="1:5" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A21" s="42">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -8445,11 +8475,11 @@
         <v>141</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="57">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A22" s="42">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -8464,8 +8494,8 @@
       </c>
       <c r="E22" s="34"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="57">
+    <row r="23" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A23" s="42">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -8480,8 +8510,8 @@
       </c>
       <c r="E23" s="34"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="57">
+    <row r="24" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A24" s="42">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -8496,8 +8526,8 @@
       </c>
       <c r="E24" s="34"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="57">
+    <row r="25" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A25" s="42">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -8512,8 +8542,8 @@
       </c>
       <c r="E25" s="35"/>
     </row>
-    <row r="26" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="57">
+    <row r="26" spans="1:5" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A26" s="42">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -8530,8 +8560,8 @@
         <v>266</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="57">
+    <row r="27" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A27" s="42">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -8546,8 +8576,8 @@
       </c>
       <c r="E27" s="34"/>
     </row>
-    <row r="28" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="57">
+    <row r="28" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A28" s="42">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
@@ -8562,8 +8592,8 @@
       </c>
       <c r="E28" s="34"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="57">
+    <row r="29" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A29" s="42">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -8578,8 +8608,8 @@
       </c>
       <c r="E29" s="34"/>
     </row>
-    <row r="30" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="57">
+    <row r="30" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A30" s="42">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -8594,8 +8624,8 @@
       </c>
       <c r="E30" s="34"/>
     </row>
-    <row r="31" spans="1:5" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="57">
+    <row r="31" spans="1:5" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A31" s="42">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -8609,11 +8639,11 @@
         <v>260</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="57">
+      <c r="A32" s="42">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -8630,8 +8660,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="57">
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A33" s="42">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
@@ -8646,8 +8676,8 @@
       </c>
       <c r="E33" s="34"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="57">
+    <row r="34" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A34" s="42">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -8663,7 +8693,7 @@
       <c r="E34" s="34"/>
     </row>
     <row r="35" spans="1:5" ht="185.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="57">
+      <c r="A35" s="42">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -8677,11 +8707,11 @@
         <v>260</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="57">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A36" s="42">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -8696,8 +8726,8 @@
       </c>
       <c r="E36" s="34"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="57">
+    <row r="37" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A37" s="42">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -8712,8 +8742,8 @@
       </c>
       <c r="E37" s="34"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="57">
+    <row r="38" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A38" s="42">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -8728,8 +8758,8 @@
       </c>
       <c r="E38" s="34"/>
     </row>
-    <row r="39" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="57">
+    <row r="39" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A39" s="42">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
@@ -8743,11 +8773,11 @@
         <v>258</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="57">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A40" s="42">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
@@ -8762,8 +8792,8 @@
       </c>
       <c r="E40" s="34"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="57">
+    <row r="41" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A41" s="42">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
@@ -8778,8 +8808,8 @@
       </c>
       <c r="E41" s="34"/>
     </row>
-    <row r="42" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="57">
+    <row r="42" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A42" s="42">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -8793,11 +8823,11 @@
         <v>141</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="57">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A43" s="42">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -8810,12 +8840,12 @@
       <c r="D43" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E43" s="59" t="s">
+      <c r="E43" s="44" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="57">
+    <row r="44" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A44" s="42">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
@@ -8830,8 +8860,8 @@
       </c>
       <c r="E44" s="34"/>
     </row>
-    <row r="45" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="57">
+    <row r="45" spans="1:5" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A45" s="42">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
@@ -8845,11 +8875,11 @@
         <v>141</v>
       </c>
       <c r="E45" s="34" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="57">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A46" s="42">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
@@ -8863,11 +8893,11 @@
         <v>141</v>
       </c>
       <c r="E46" s="34" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="57">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A47" s="42">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -8881,11 +8911,11 @@
         <v>141</v>
       </c>
       <c r="E47" s="34" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="57">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A48" s="42">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
@@ -8900,8 +8930,8 @@
       </c>
       <c r="E48" s="34"/>
     </row>
-    <row r="49" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="57">
+    <row r="49" spans="1:5" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A49" s="42">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
@@ -8915,11 +8945,11 @@
         <v>141</v>
       </c>
       <c r="E49" s="34" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="57">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A50" s="42">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
@@ -8934,8 +8964,8 @@
       </c>
       <c r="E50" s="34"/>
     </row>
-    <row r="51" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="57">
+    <row r="51" spans="1:5" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A51" s="42">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
@@ -8949,11 +8979,11 @@
         <v>259</v>
       </c>
       <c r="E51" s="34" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="57">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A52" s="42">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -8968,8 +8998,8 @@
       </c>
       <c r="E52" s="34"/>
     </row>
-    <row r="53" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A53" s="57">
+    <row r="53" spans="1:5" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A53" s="42">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
@@ -8986,8 +9016,8 @@
         <v>293</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="57">
+    <row r="54" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A54" s="42">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
@@ -9002,8 +9032,8 @@
       </c>
       <c r="E54" s="34"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="57">
+    <row r="55" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A55" s="42">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
@@ -9018,8 +9048,8 @@
       </c>
       <c r="E55" s="34"/>
     </row>
-    <row r="56" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="57">
+    <row r="56" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A56" s="42">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
@@ -9034,8 +9064,8 @@
       </c>
       <c r="E56" s="34"/>
     </row>
-    <row r="57" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="57">
+    <row r="57" spans="1:5" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A57" s="42">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
@@ -9049,11 +9079,11 @@
         <v>272</v>
       </c>
       <c r="E57" s="34" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="57">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A58" s="42">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
@@ -9068,8 +9098,8 @@
       </c>
       <c r="E58" s="34"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="57">
+    <row r="59" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A59" s="42">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
@@ -9084,8 +9114,8 @@
       </c>
       <c r="E59" s="34"/>
     </row>
-    <row r="60" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="57">
+    <row r="60" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A60" s="42">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
@@ -9100,8 +9130,8 @@
       </c>
       <c r="E60" s="34"/>
     </row>
-    <row r="61" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A61" s="57">
+    <row r="61" spans="1:5" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A61" s="42">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
@@ -9118,8 +9148,8 @@
         <v>293</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A62" s="57">
+    <row r="62" spans="1:5" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A62" s="42">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -9136,8 +9166,8 @@
         <v>293</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="57">
+    <row r="63" spans="1:5" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A63" s="42">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
@@ -9152,8 +9182,8 @@
       </c>
       <c r="E63" s="34"/>
     </row>
-    <row r="64" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A64" s="57">
+    <row r="64" spans="1:5" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A64" s="42">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
@@ -9161,15 +9191,15 @@
         <v>228</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>257</v>
       </c>
       <c r="E64" s="34"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="57">
+    <row r="65" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A65" s="42">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
@@ -9184,8 +9214,8 @@
       </c>
       <c r="E65" s="34"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="57">
+    <row r="66" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A66" s="42">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
@@ -9200,8 +9230,8 @@
       </c>
       <c r="E66" s="34"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="57">
+    <row r="67" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A67" s="42">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
@@ -9216,8 +9246,8 @@
       </c>
       <c r="E67" s="34"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="57">
+    <row r="68" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A68" s="42">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
@@ -9232,8 +9262,8 @@
       </c>
       <c r="E68" s="34"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="57">
+    <row r="69" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A69" s="42">
         <f t="shared" ref="A69:A128" si="1">A68+1</f>
         <v>67</v>
       </c>
@@ -9248,8 +9278,8 @@
       </c>
       <c r="E69" s="34"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="57">
+    <row r="70" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A70" s="42">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
@@ -9264,8 +9294,8 @@
       </c>
       <c r="E70" s="34"/>
     </row>
-    <row r="71" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="57">
+    <row r="71" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A71" s="42">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
@@ -9282,8 +9312,8 @@
         <v>296</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="57">
+    <row r="72" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A72" s="42">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
@@ -9300,8 +9330,8 @@
         <v>297</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="57">
+    <row r="73" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A73" s="42">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
@@ -9316,8 +9346,8 @@
       </c>
       <c r="E73" s="34"/>
     </row>
-    <row r="74" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="57">
+    <row r="74" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A74" s="42">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
@@ -9331,11 +9361,11 @@
         <v>267</v>
       </c>
       <c r="E74" s="34" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="57">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A75" s="42">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
@@ -9350,8 +9380,8 @@
       </c>
       <c r="E75" s="34"/>
     </row>
-    <row r="76" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="57">
+    <row r="76" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A76" s="42">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
@@ -9365,11 +9395,11 @@
         <v>267</v>
       </c>
       <c r="E76" s="34" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="57">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A77" s="42">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
@@ -9384,8 +9414,8 @@
       </c>
       <c r="E77" s="34"/>
     </row>
-    <row r="78" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="57">
+    <row r="78" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A78" s="42">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
@@ -9399,11 +9429,11 @@
         <v>267</v>
       </c>
       <c r="E78" s="34" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="57">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A79" s="42">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
@@ -9417,11 +9447,11 @@
         <v>267</v>
       </c>
       <c r="E79" s="34" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="57">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A80" s="42">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
@@ -9435,11 +9465,11 @@
         <v>267</v>
       </c>
       <c r="E80" s="34" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="57">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A81" s="42">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
@@ -9454,8 +9484,8 @@
       </c>
       <c r="E81" s="34"/>
     </row>
-    <row r="82" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="57">
+    <row r="82" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A82" s="42">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
@@ -9469,11 +9499,11 @@
         <v>267</v>
       </c>
       <c r="E82" s="34" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="57">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A83" s="42">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
@@ -9487,11 +9517,11 @@
         <v>267</v>
       </c>
       <c r="E83" s="34" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="57">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A84" s="42">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
@@ -9505,11 +9535,11 @@
         <v>267</v>
       </c>
       <c r="E84" s="34" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="57">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A85" s="42">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
@@ -9523,11 +9553,11 @@
         <v>267</v>
       </c>
       <c r="E85" s="34" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="57">
+      <c r="A86" s="42">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
@@ -9541,11 +9571,11 @@
         <v>267</v>
       </c>
       <c r="E86" s="34" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="57">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A87" s="42">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
@@ -9559,11 +9589,11 @@
         <v>267</v>
       </c>
       <c r="E87" s="34" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="57">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A88" s="42">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
@@ -9577,11 +9607,11 @@
         <v>267</v>
       </c>
       <c r="E88" s="34" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="57">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A89" s="42">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
@@ -9595,11 +9625,11 @@
         <v>267</v>
       </c>
       <c r="E89" s="34" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="57">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A90" s="42">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
@@ -9613,11 +9643,11 @@
         <v>267</v>
       </c>
       <c r="E90" s="34" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="57">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A91" s="42">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
@@ -9632,8 +9662,8 @@
       </c>
       <c r="E91" s="34"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="57">
+    <row r="92" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A92" s="42">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
@@ -9648,8 +9678,8 @@
       </c>
       <c r="E92" s="34"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="57">
+    <row r="93" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A93" s="42">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
@@ -9664,8 +9694,8 @@
       </c>
       <c r="E93" s="34"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="57">
+    <row r="94" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A94" s="42">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
@@ -9680,8 +9710,8 @@
       </c>
       <c r="E94" s="34"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="57">
+    <row r="95" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A95" s="42">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
@@ -9696,8 +9726,8 @@
       </c>
       <c r="E95" s="34"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="57">
+    <row r="96" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A96" s="42">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
@@ -9712,8 +9742,8 @@
       </c>
       <c r="E96" s="34"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="57">
+    <row r="97" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A97" s="42">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
@@ -9728,8 +9758,8 @@
       </c>
       <c r="E97" s="34"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="57">
+    <row r="98" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A98" s="42">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
@@ -9744,8 +9774,8 @@
       </c>
       <c r="E98" s="34"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="57">
+    <row r="99" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A99" s="42">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
@@ -9760,8 +9790,8 @@
       </c>
       <c r="E99" s="34"/>
     </row>
-    <row r="100" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A100" s="57">
+    <row r="100" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A100" s="42">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
@@ -9775,11 +9805,11 @@
         <v>257</v>
       </c>
       <c r="E100" s="34" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="57">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A101" s="42">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
@@ -9794,8 +9824,8 @@
       </c>
       <c r="E101" s="34"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="57">
+    <row r="102" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A102" s="42">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -9810,8 +9840,8 @@
       </c>
       <c r="E102" s="34"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="57">
+    <row r="103" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A103" s="42">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
@@ -9826,8 +9856,8 @@
       </c>
       <c r="E103" s="34"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="57">
+    <row r="104" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A104" s="42">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
@@ -9842,8 +9872,8 @@
       </c>
       <c r="E104" s="34"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="57">
+    <row r="105" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A105" s="42">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
@@ -9858,8 +9888,8 @@
       </c>
       <c r="E105" s="34"/>
     </row>
-    <row r="106" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="57">
+    <row r="106" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A106" s="42">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
@@ -9874,8 +9904,8 @@
       </c>
       <c r="E106" s="34"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="57">
+    <row r="107" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A107" s="42">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
@@ -9890,8 +9920,8 @@
       </c>
       <c r="E107" s="34"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="57">
+    <row r="108" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A108" s="42">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
@@ -9906,8 +9936,8 @@
       </c>
       <c r="E108" s="34"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="57">
+    <row r="109" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A109" s="42">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
@@ -9922,8 +9952,8 @@
       </c>
       <c r="E109" s="34"/>
     </row>
-    <row r="110" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="57">
+    <row r="110" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A110" s="42">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
@@ -9938,8 +9968,8 @@
       </c>
       <c r="E110" s="34"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="57">
+    <row r="111" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A111" s="42">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
@@ -9954,8 +9984,8 @@
       </c>
       <c r="E111" s="34"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="57">
+    <row r="112" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A112" s="42">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
@@ -9970,8 +10000,8 @@
       </c>
       <c r="E112" s="34"/>
     </row>
-    <row r="113" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="57">
+    <row r="113" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A113" s="42">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
@@ -9987,7 +10017,7 @@
       <c r="E113" s="34"/>
     </row>
     <row r="114" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="57">
+      <c r="A114" s="42">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
@@ -10000,12 +10030,12 @@
       <c r="D114" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E114" s="59" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="57">
+      <c r="E114" s="44" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A115" s="42">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
@@ -10020,8 +10050,8 @@
       </c>
       <c r="E115" s="34"/>
     </row>
-    <row r="116" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A116" s="57">
+    <row r="116" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A116" s="42">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
@@ -10036,8 +10066,8 @@
       </c>
       <c r="E116" s="34"/>
     </row>
-    <row r="117" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A117" s="57">
+    <row r="117" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A117" s="42">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
@@ -10045,17 +10075,17 @@
         <v>21</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>260</v>
       </c>
       <c r="E117" s="34" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A118" s="57">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A118" s="42">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
@@ -10069,11 +10099,11 @@
         <v>141</v>
       </c>
       <c r="E118" s="34" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="57">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A119" s="42">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
@@ -10088,8 +10118,8 @@
       </c>
       <c r="E119" s="34"/>
     </row>
-    <row r="120" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="57">
+    <row r="120" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A120" s="42">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
@@ -10097,15 +10127,15 @@
         <v>7</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>257</v>
       </c>
       <c r="E120" s="34"/>
     </row>
-    <row r="121" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="57">
+    <row r="121" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A121" s="42">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
@@ -10120,8 +10150,8 @@
       </c>
       <c r="E121" s="34"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="57">
+    <row r="122" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A122" s="42">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
@@ -10136,8 +10166,8 @@
       </c>
       <c r="E122" s="34"/>
     </row>
-    <row r="123" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A123" s="57">
+    <row r="123" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A123" s="42">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
@@ -10152,8 +10182,8 @@
       </c>
       <c r="E123" s="34"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="57">
+    <row r="124" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A124" s="42">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
@@ -10168,8 +10198,8 @@
       </c>
       <c r="E124" s="34"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="57">
+    <row r="125" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A125" s="42">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
@@ -10184,8 +10214,8 @@
       </c>
       <c r="E125" s="34"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" s="57">
+    <row r="126" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A126" s="42">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
@@ -10200,8 +10230,8 @@
       </c>
       <c r="E126" s="34"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="57">
+    <row r="127" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A127" s="42">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
@@ -10216,8 +10246,8 @@
       </c>
       <c r="E127" s="34"/>
     </row>
-    <row r="128" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A128" s="57">
+    <row r="128" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A128" s="42">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
@@ -10231,7 +10261,7 @@
         <v>257</v>
       </c>
       <c r="E128" s="34" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.2">
